--- a/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156A3DE1-B471-4008-8651-0AAFD600BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73614BA3-7CE1-434E-9645-4CB3BF2E8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9E345C3D-DE73-4AA3-B21F-4957E5D57DFF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3A1D19D2-CFD8-4E52-86E9-5F4994DC3F45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,216 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
     <t>30,73%</t>
   </si>
   <si>
@@ -118,33 +307,6 @@
     <t>31,28%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
     <t>39,86%</t>
   </si>
   <si>
@@ -172,39 +334,12 @@
     <t>46,41%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
     <t>25,05%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
     <t>23,02%</t>
   </si>
   <si>
@@ -223,139 +358,49 @@
     <t>27,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>28,88%</t>
@@ -385,27 +430,6 @@
     <t>30,83%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
     <t>40,57%</t>
   </si>
   <si>
@@ -433,30 +457,6 @@
     <t>46,23%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
     <t>25,78%</t>
   </si>
   <si>
@@ -487,6 +487,177 @@
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
   </si>
   <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
     <t>20,88%</t>
   </si>
   <si>
@@ -514,30 +685,6 @@
     <t>25,48%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
     <t>36,55%</t>
   </si>
   <si>
@@ -565,27 +712,6 @@
     <t>39,2%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>34,3%</t>
   </si>
   <si>
@@ -613,130 +739,49 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>21,39%</t>
@@ -763,27 +808,6 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
     <t>35,53%</t>
   </si>
   <si>
@@ -811,30 +835,6 @@
     <t>38,85%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>34,5%</t>
   </si>
   <si>
@@ -862,6 +862,180 @@
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
     <t>29,42%</t>
   </si>
   <si>
@@ -889,33 +1063,6 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
     <t>37,14%</t>
   </si>
   <si>
@@ -943,27 +1090,6 @@
     <t>38,51%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
     <t>24,07%</t>
   </si>
   <si>
@@ -988,130 +1114,52 @@
     <t>28,74%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>27,9%</t>
@@ -1141,33 +1189,6 @@
     <t>31,53%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
     <t>37,51%</t>
   </si>
   <si>
@@ -1193,27 +1214,6 @@
   </si>
   <si>
     <t>38,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
   </si>
   <si>
     <t>25,16%</t>
@@ -1629,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F72BE5-2735-4282-A34F-93E294664A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD51ACB-B77D-4A22-855D-C64F158FBE90}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,10 +2019,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>76988</v>
+        <v>2487</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2034,10 +2034,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>60428</v>
+        <v>2136</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2049,10 +2049,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>137415</v>
+        <v>4623</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2070,10 +2070,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>9059</v>
+        <v>1383</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2085,34 +2085,34 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>10427</v>
+        <v>1283</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2666</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="7">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>19486</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,49 +2121,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>99854</v>
+        <v>12421</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7">
+        <v>17085</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>162</v>
-      </c>
-      <c r="I12" s="7">
-        <v>111990</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>44</v>
+      </c>
+      <c r="N12" s="7">
+        <v>29506</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="7">
-        <v>312</v>
-      </c>
-      <c r="N12" s="7">
-        <v>211844</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,49 +2172,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>1845</v>
+        <v>25741</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>31</v>
+      </c>
+      <c r="I13" s="7">
+        <v>20523</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3275</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>69</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46265</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5121</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,10 +2223,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>62764</v>
+        <v>17037</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>52</v>
@@ -2238,10 +2238,10 @@
         <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>55645</v>
+        <v>7854</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
@@ -2253,10 +2253,10 @@
         <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>118408</v>
+        <v>24891</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>58</v>
@@ -2274,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250510</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -2289,10 +2289,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -2304,10 +2304,10 @@
         <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>735</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>492273</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -2327,10 +2327,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>12421</v>
+        <v>1845</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>63</v>
@@ -2342,10 +2342,10 @@
         <v>65</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>17085</v>
+        <v>3275</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>66</v>
@@ -2357,10 +2357,10 @@
         <v>68</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>29506</v>
+        <v>5121</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>69</v>
@@ -2378,40 +2378,40 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>1383</v>
+        <v>9059</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10427</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1283</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N17" s="7">
-        <v>2666</v>
+        <v>19486</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>77</v>
@@ -2429,10 +2429,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D18" s="7">
-        <v>25741</v>
+        <v>76988</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>80</v>
@@ -2444,10 +2444,10 @@
         <v>82</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I18" s="7">
-        <v>20523</v>
+        <v>60428</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>83</v>
@@ -2459,10 +2459,10 @@
         <v>85</v>
       </c>
       <c r="M18" s="7">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="N18" s="7">
-        <v>46265</v>
+        <v>137415</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>86</v>
@@ -2480,10 +2480,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7">
-        <v>2487</v>
+        <v>99854</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>89</v>
@@ -2495,10 +2495,10 @@
         <v>91</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="I19" s="7">
-        <v>2136</v>
+        <v>111990</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>92</v>
@@ -2510,10 +2510,10 @@
         <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="N19" s="7">
-        <v>4623</v>
+        <v>211844</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>95</v>
@@ -2531,10 +2531,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7">
-        <v>17037</v>
+        <v>62764</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>98</v>
@@ -2543,37 +2543,37 @@
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="7">
+        <v>85</v>
+      </c>
+      <c r="I20" s="7">
+        <v>55645</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7854</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>178</v>
+      </c>
+      <c r="N20" s="7">
+        <v>118408</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="7">
-        <v>39</v>
-      </c>
-      <c r="N20" s="7">
-        <v>24891</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250510</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
@@ -2597,10 +2597,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -2612,10 +2612,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>735</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>492273</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -2635,10 +2635,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>89409</v>
+        <v>4332</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>106</v>
@@ -2650,10 +2650,10 @@
         <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>77512</v>
+        <v>5412</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>109</v>
@@ -2665,10 +2665,10 @@
         <v>111</v>
       </c>
       <c r="M22" s="7">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>166921</v>
+        <v>9744</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>112</v>
@@ -2695,7 +2695,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>116</v>
@@ -2710,7 +2710,7 @@
         <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>118</v>
@@ -2725,10 +2725,10 @@
         <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,49 +2737,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D24" s="7">
-        <v>125595</v>
+        <v>89409</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>117</v>
+      </c>
+      <c r="I24" s="7">
+        <v>77512</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="7">
-        <v>193</v>
-      </c>
-      <c r="I24" s="7">
-        <v>132513</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>252</v>
+      </c>
+      <c r="N24" s="7">
+        <v>166921</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="7">
-        <v>381</v>
-      </c>
-      <c r="N24" s="7">
-        <v>258108</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,25 +2788,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="D25" s="7">
-        <v>4332</v>
+        <v>125595</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="I25" s="7">
-        <v>5412</v>
+        <v>132513</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>133</v>
@@ -2818,10 +2818,10 @@
         <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="N25" s="7">
-        <v>9744</v>
+        <v>258108</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>136</v>
@@ -2951,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE697852-4E17-4071-BA3F-BB896A597369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F621D-0369-48CC-B18F-06CEF63E0BE0}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,10 +3341,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>54136</v>
+        <v>3012</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>149</v>
@@ -3356,34 +3356,34 @@
         <v>151</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>57636</v>
+        <v>1307</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4319</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="7">
-        <v>163</v>
-      </c>
-      <c r="N10" s="7">
-        <v>111772</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,49 +3392,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>14404</v>
+        <v>3472</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2148</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8485</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5621</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M11" s="7">
-        <v>32</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22889</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,49 +3443,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>94756</v>
+        <v>15461</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12808</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>83058</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>40</v>
+      </c>
+      <c r="N12" s="7">
+        <v>28269</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M12" s="7">
-        <v>259</v>
-      </c>
-      <c r="N12" s="7">
-        <v>177814</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3494,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>7046</v>
+        <v>20870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>175</v>
@@ -3509,10 +3509,10 @@
         <v>176</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>1962</v>
+        <v>28096</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>177</v>
@@ -3524,19 +3524,19 @@
         <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>9008</v>
+        <v>48966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,40 +3545,40 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>88915</v>
+        <v>23359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>89321</v>
+        <v>25008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M14" s="7">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>178236</v>
+        <v>48367</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>188</v>
@@ -3596,10 +3596,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259257</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -3611,10 +3611,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>240463</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -3626,10 +3626,10 @@
         <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>724</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>499720</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -3649,49 +3649,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>15461</v>
+        <v>7046</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1962</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12808</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9008</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M16" s="7">
-        <v>40</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28269</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,49 +3700,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>3472</v>
+        <v>14404</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8485</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2148</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>32</v>
+      </c>
+      <c r="N17" s="7">
+        <v>22889</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M17" s="7">
-        <v>8</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5621</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,49 +3751,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7">
-        <v>20870</v>
+        <v>54136</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="7">
+        <v>82</v>
+      </c>
+      <c r="I18" s="7">
+        <v>57636</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="7">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28096</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>163</v>
+      </c>
+      <c r="N18" s="7">
+        <v>111772</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M18" s="7">
-        <v>69</v>
-      </c>
-      <c r="N18" s="7">
-        <v>48966</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,49 +3802,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7">
-        <v>3012</v>
+        <v>94756</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="7">
+        <v>120</v>
+      </c>
+      <c r="I19" s="7">
+        <v>83058</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1307</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>259</v>
+      </c>
+      <c r="N19" s="7">
+        <v>177814</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4319</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,40 +3853,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>23359</v>
+        <v>88915</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>126</v>
+      </c>
+      <c r="I20" s="7">
+        <v>89321</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="7">
-        <v>35</v>
-      </c>
-      <c r="I20" s="7">
-        <v>25008</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>229</v>
       </c>
       <c r="M20" s="7">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="N20" s="7">
-        <v>48367</v>
+        <v>178236</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>230</v>
@@ -3904,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259257</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
@@ -3919,10 +3919,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>240463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -3934,10 +3934,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>724</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>499720</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -3957,10 +3957,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>69596</v>
+        <v>10058</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>233</v>
@@ -3972,10 +3972,10 @@
         <v>235</v>
       </c>
       <c r="H22" s="7">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>70444</v>
+        <v>3269</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>236</v>
@@ -3984,22 +3984,22 @@
         <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="7">
+        <v>18</v>
+      </c>
+      <c r="N22" s="7">
+        <v>13328</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="7">
-        <v>203</v>
-      </c>
-      <c r="N22" s="7">
-        <v>140041</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4020,7 @@
         <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -4047,7 +4047,7 @@
         <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>247</v>
@@ -4059,10 +4059,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="D24" s="7">
-        <v>115626</v>
+        <v>69596</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>248</v>
@@ -4074,10 +4074,10 @@
         <v>250</v>
       </c>
       <c r="H24" s="7">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I24" s="7">
-        <v>111154</v>
+        <v>70444</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>251</v>
@@ -4089,10 +4089,10 @@
         <v>253</v>
       </c>
       <c r="M24" s="7">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="N24" s="7">
-        <v>226781</v>
+        <v>140041</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>254</v>
@@ -4101,7 +4101,7 @@
         <v>255</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>256</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,40 +4110,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D25" s="7">
-        <v>10058</v>
+        <v>115626</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>160</v>
+      </c>
+      <c r="I25" s="7">
+        <v>111154</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3269</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M25" s="7">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="N25" s="7">
-        <v>13328</v>
+        <v>226781</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>262</v>
@@ -4197,7 +4197,7 @@
         <v>226604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>271</v>
@@ -4273,7 +4273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A010ED2-01A5-41C5-B505-1B815947A153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F652EFF-823F-4BA6-902B-617CD402924B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4663,10 +4663,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>80414</v>
+        <v>2027</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>274</v>
@@ -4678,10 +4678,10 @@
         <v>276</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>73326</v>
+        <v>3065</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>277</v>
@@ -4693,10 +4693,10 @@
         <v>279</v>
       </c>
       <c r="M10" s="7">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>153740</v>
+        <v>5091</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>280</v>
@@ -4714,10 +4714,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>18878</v>
+        <v>5318</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>283</v>
@@ -4729,10 +4729,10 @@
         <v>285</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>20554</v>
+        <v>8666</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>286</v>
@@ -4744,19 +4744,19 @@
         <v>288</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>39432</v>
+        <v>13984</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,49 +4765,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>101525</v>
+        <v>17015</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7">
+        <v>26860</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="7">
-        <v>118</v>
-      </c>
-      <c r="I12" s="7">
-        <v>83414</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>66</v>
+      </c>
+      <c r="N12" s="7">
+        <v>43875</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M12" s="7">
-        <v>256</v>
-      </c>
-      <c r="N12" s="7">
-        <v>184940</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,40 +4816,40 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>6720</v>
+        <v>29458</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>10769</v>
+        <v>27038</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>304</v>
       </c>
       <c r="M13" s="7">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>17489</v>
+        <v>56496</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>305</v>
@@ -4867,40 +4867,40 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>65800</v>
+        <v>22049</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>31</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21426</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H14" s="7">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7">
-        <v>68330</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>312</v>
       </c>
       <c r="M14" s="7">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>134130</v>
+        <v>43475</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>313</v>
@@ -4918,10 +4918,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -4933,10 +4933,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>256393</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -4948,10 +4948,10 @@
         <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>729</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>529730</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -4971,49 +4971,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>17015</v>
+        <v>6720</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10769</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26860</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17489</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="M16" s="7">
-        <v>66</v>
-      </c>
-      <c r="N16" s="7">
-        <v>43875</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5022,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>5318</v>
+        <v>18878</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7">
+        <v>20554</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8666</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>54</v>
+      </c>
+      <c r="N17" s="7">
+        <v>39432</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
-      <c r="N17" s="7">
-        <v>13984</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,28 +5073,28 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>29458</v>
+        <v>80414</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>101</v>
+      </c>
+      <c r="I18" s="7">
+        <v>73326</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H18" s="7">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27038</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>336</v>
@@ -5103,10 +5103,10 @@
         <v>337</v>
       </c>
       <c r="M18" s="7">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>56496</v>
+        <v>153740</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>338</v>
@@ -5124,10 +5124,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>2027</v>
+        <v>101525</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>341</v>
@@ -5139,10 +5139,10 @@
         <v>343</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="I19" s="7">
-        <v>3065</v>
+        <v>83414</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>344</v>
@@ -5154,10 +5154,10 @@
         <v>346</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="N19" s="7">
-        <v>5091</v>
+        <v>184940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>347</v>
@@ -5175,40 +5175,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>22049</v>
+        <v>65800</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7">
-        <v>21426</v>
+        <v>68330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>354</v>
       </c>
       <c r="M20" s="7">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="N20" s="7">
-        <v>43475</v>
+        <v>134130</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>355</v>
@@ -5226,10 +5226,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
@@ -5241,10 +5241,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>256393</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -5256,10 +5256,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>729</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>529730</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -5279,49 +5279,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>97429</v>
+        <v>8746</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7">
+        <v>13833</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H22" s="7">
-        <v>142</v>
-      </c>
-      <c r="I22" s="7">
-        <v>100186</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>32</v>
+      </c>
+      <c r="N22" s="7">
+        <v>22580</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M22" s="7">
-        <v>275</v>
-      </c>
-      <c r="N22" s="7">
-        <v>197615</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5336,13 @@
         <v>24195</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -5351,13 +5351,13 @@
         <v>29220</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -5366,13 +5366,13 @@
         <v>53415</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,49 +5381,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D24" s="7">
-        <v>130983</v>
+        <v>97429</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>142</v>
+      </c>
+      <c r="I24" s="7">
+        <v>100186</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H24" s="7">
-        <v>158</v>
-      </c>
-      <c r="I24" s="7">
-        <v>110452</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>275</v>
+      </c>
+      <c r="N24" s="7">
+        <v>197615</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="M24" s="7">
-        <v>338</v>
-      </c>
-      <c r="N24" s="7">
-        <v>241436</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,28 +5432,28 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="D25" s="7">
-        <v>8746</v>
+        <v>130983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>383</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>158</v>
+      </c>
+      <c r="I25" s="7">
+        <v>110452</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="H25" s="7">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13833</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>387</v>
@@ -5462,10 +5462,10 @@
         <v>388</v>
       </c>
       <c r="M25" s="7">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="N25" s="7">
-        <v>22580</v>
+        <v>241436</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>389</v>
@@ -5504,7 +5504,7 @@
         <v>89756</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>395</v>

--- a/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73614BA3-7CE1-434E-9645-4CB3BF2E8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B7D69B-63AA-40D7-A3E2-06E4530B29B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3A1D19D2-CFD8-4E52-86E9-5F4994DC3F45}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0BA12E3-F08E-40CF-B690-7995B23AA083}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="404">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -67,1177 +67,1189 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
     <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1260,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1344,39 +1356,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1428,7 +1440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1539,13 +1551,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1554,6 +1559,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1618,19 +1630,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD51ACB-B77D-4A22-855D-C64F158FBE90}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3141D70B-E8F8-458D-9B34-100793B0AAE9}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2019,49 +2051,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,49 +2096,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,49 +2141,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
-      </c>
-      <c r="N12" s="7">
-        <v>29506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,49 +2186,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,49 +2231,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7">
-        <v>17037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>39</v>
-      </c>
-      <c r="N14" s="7">
-        <v>24891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,102 +2276,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>1845</v>
+        <v>30165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>3275</v>
+        <v>28954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>5121</v>
+        <v>59119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,49 +2374,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>9059</v>
+        <v>56258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>10427</v>
+        <v>43371</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="N17" s="7">
-        <v>19486</v>
+        <v>99628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,49 +2425,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>76988</v>
+        <v>27977</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
-        <v>60428</v>
+        <v>34588</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="N18" s="7">
-        <v>137415</v>
+        <v>62565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,49 +2476,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>99854</v>
+        <v>5900</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>111990</v>
+        <v>2661</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>211844</v>
+        <v>8561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,49 +2527,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>62764</v>
+        <v>3181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2136</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="7">
+        <v>8</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5318</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="7">
-        <v>85</v>
-      </c>
-      <c r="I20" s="7">
-        <v>55645</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>178</v>
-      </c>
-      <c r="N20" s="7">
-        <v>118408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,102 +2578,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250510</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>735</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>492273</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7">
-        <v>4332</v>
+        <v>49635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="I22" s="7">
-        <v>5412</v>
+        <v>34545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>9744</v>
+        <v>84180</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,49 +2682,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7">
-        <v>10442</v>
+        <v>69337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="I23" s="7">
-        <v>11710</v>
+        <v>89143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="N23" s="7">
-        <v>22151</v>
+        <v>158480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,49 +2733,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7">
-        <v>89409</v>
+        <v>61432</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I24" s="7">
-        <v>77512</v>
+        <v>42924</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="N24" s="7">
-        <v>166921</v>
+        <v>104356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,49 +2784,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>125595</v>
+        <v>4542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>132513</v>
+        <v>9048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>258108</v>
+        <v>13590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,49 +2835,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>79801</v>
+        <v>1151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>63499</v>
+        <v>3275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>143299</v>
+        <v>4426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,55 +2886,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>544</v>
+      </c>
+      <c r="N27" s="7">
+        <v>365032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>120</v>
+      </c>
+      <c r="D28" s="7">
+        <v>79801</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>97</v>
+      </c>
+      <c r="I28" s="7">
+        <v>63499</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>217</v>
+      </c>
+      <c r="N28" s="7">
+        <v>143299</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>188</v>
+      </c>
+      <c r="D29" s="7">
+        <v>125595</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>193</v>
+      </c>
+      <c r="I29" s="7">
+        <v>132513</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>381</v>
+      </c>
+      <c r="N29" s="7">
+        <v>258108</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7">
+        <v>89409</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>117</v>
+      </c>
+      <c r="I30" s="7">
+        <v>77512</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="7">
+        <v>252</v>
+      </c>
+      <c r="N30" s="7">
+        <v>166921</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10442</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7">
+        <v>17</v>
+      </c>
+      <c r="I31" s="7">
+        <v>11710</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="7">
+        <v>33</v>
+      </c>
+      <c r="N31" s="7">
+        <v>22151</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4332</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5412</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="7">
+        <v>15</v>
+      </c>
+      <c r="N32" s="7">
+        <v>9744</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309578</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>898</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>600224</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>61</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2951,8 +3261,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F621D-0369-48CC-B18F-06CEF63E0BE0}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561E697-05AC-4C5C-8AAB-50A8E81B49D5}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2968,7 +3278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,49 +3651,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,49 +3696,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,49 +3741,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>40</v>
-      </c>
-      <c r="N12" s="7">
-        <v>28269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,49 +3786,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7">
-        <v>20870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,49 +3831,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7">
-        <v>23359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
-      </c>
-      <c r="N14" s="7">
-        <v>48367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,102 +3876,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>7046</v>
+        <v>49855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I16" s="7">
-        <v>1962</v>
+        <v>58349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>9008</v>
+        <v>108204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,49 +3974,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7">
-        <v>14404</v>
+        <v>52447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>8485</v>
+        <v>50246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="N17" s="7">
-        <v>22889</v>
+        <v>102692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,49 +4025,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>54136</v>
+        <v>36465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>57636</v>
+        <v>32795</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="N18" s="7">
-        <v>111772</v>
+        <v>69261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,49 +4076,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>94756</v>
+        <v>8933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>83058</v>
+        <v>4969</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>177814</v>
+        <v>13902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,49 +4127,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>88915</v>
+        <v>7081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>89321</v>
+        <v>1963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>178236</v>
+        <v>9044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,102 +4178,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>222</v>
       </c>
       <c r="D21" s="7">
-        <v>259257</v>
+        <v>154780</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="I21" s="7">
-        <v>240463</v>
+        <v>148323</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>724</v>
+        <v>434</v>
       </c>
       <c r="N21" s="7">
-        <v>499720</v>
+        <v>303103</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D22" s="7">
-        <v>10058</v>
+        <v>62419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>3269</v>
+        <v>55980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="N22" s="7">
-        <v>13328</v>
+        <v>118400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +4282,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7">
-        <v>17876</v>
+        <v>63179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>10634</v>
+        <v>60909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="N23" s="7">
-        <v>28510</v>
+        <v>124088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,49 +4333,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7">
-        <v>69596</v>
+        <v>33131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H24" s="7">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>70444</v>
+        <v>37649</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="M24" s="7">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="N24" s="7">
-        <v>140041</v>
+        <v>70780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4384,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>115626</v>
+        <v>8944</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="H25" s="7">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>111154</v>
+        <v>5664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>226781</v>
+        <v>14608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4435,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>112274</v>
+        <v>2977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="H26" s="7">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>114329</v>
+        <v>1306</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
-        <v>325</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>226604</v>
+        <v>4283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,55 +4486,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>480</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332160</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>164</v>
+      </c>
+      <c r="D28" s="7">
+        <v>112274</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="7">
+        <v>161</v>
+      </c>
+      <c r="I28" s="7">
+        <v>114329</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" s="7">
+        <v>325</v>
+      </c>
+      <c r="N28" s="7">
+        <v>226603</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>168</v>
+      </c>
+      <c r="D29" s="7">
+        <v>115626</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="7">
+        <v>160</v>
+      </c>
+      <c r="I29" s="7">
+        <v>111154</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="7">
+        <v>328</v>
+      </c>
+      <c r="N29" s="7">
+        <v>226780</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>103</v>
+      </c>
+      <c r="D30" s="7">
+        <v>69596</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="7">
+        <v>100</v>
+      </c>
+      <c r="I30" s="7">
+        <v>70444</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="7">
+        <v>203</v>
+      </c>
+      <c r="N30" s="7">
+        <v>140041</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7">
+        <v>17876</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="7">
+        <v>15</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10634</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" s="7">
+        <v>40</v>
+      </c>
+      <c r="N31" s="7">
+        <v>28510</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10058</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3269</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" s="7">
+        <v>18</v>
+      </c>
+      <c r="N32" s="7">
+        <v>13328</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>325431</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>441</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>309831</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>914</v>
       </c>
-      <c r="N27" s="7">
-        <v>635263</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>61</v>
+      <c r="N33" s="7">
+        <v>635262</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4273,8 +4861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F652EFF-823F-4BA6-902B-617CD402924B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183C5070-62A6-4B80-8F2B-1F2ED8769399}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4290,7 +4878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4663,49 +5251,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,49 +5296,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,49 +5341,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7">
-        <v>17015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7">
-        <v>26860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>66</v>
-      </c>
-      <c r="N12" s="7">
-        <v>43875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,49 +5386,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <v>29458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>82</v>
-      </c>
-      <c r="N13" s="7">
-        <v>56496</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,49 +5431,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7">
-        <v>22049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
-      </c>
-      <c r="N14" s="7">
-        <v>43475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,102 +5476,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>6720</v>
+        <v>46454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>10769</v>
+        <v>45827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="N16" s="7">
-        <v>17489</v>
+        <v>92281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>18878</v>
+        <v>69350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>20554</v>
+        <v>56446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="N17" s="7">
-        <v>39432</v>
+        <v>125796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,49 +5625,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>80414</v>
+        <v>45885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I18" s="7">
-        <v>73326</v>
+        <v>51888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="N18" s="7">
-        <v>153740</v>
+        <v>97774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,49 +5676,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>101525</v>
+        <v>11094</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>83414</v>
+        <v>16534</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>184940</v>
+        <v>27629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,49 +5727,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>65800</v>
+        <v>5827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>68330</v>
+        <v>8608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>134130</v>
+        <v>14434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,102 +5778,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>257</v>
       </c>
       <c r="I21" s="7">
-        <v>256393</v>
+        <v>179303</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>729</v>
+        <v>507</v>
       </c>
       <c r="N21" s="7">
-        <v>529730</v>
+        <v>357914</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>8746</v>
+        <v>41394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7">
-        <v>13833</v>
+        <v>43930</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>22580</v>
+        <v>85324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,49 +5882,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7">
-        <v>24195</v>
+        <v>61633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I23" s="7">
-        <v>29220</v>
+        <v>54006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="N23" s="7">
-        <v>53415</v>
+        <v>115639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,49 +5933,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7">
-        <v>97429</v>
+        <v>51543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="I24" s="7">
-        <v>100186</v>
+        <v>48298</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="N24" s="7">
-        <v>197615</v>
+        <v>99841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,49 +5984,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>130983</v>
+        <v>13101</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>110452</v>
+        <v>12685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="N25" s="7">
-        <v>241436</v>
+        <v>25786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,49 +6035,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>87849</v>
+        <v>2920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>89756</v>
+        <v>5226</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>395</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>177605</v>
+        <v>8146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,55 +6086,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>233</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164145</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>463</v>
+      </c>
+      <c r="N27" s="7">
+        <v>334737</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>122</v>
+      </c>
+      <c r="D28" s="7">
+        <v>87849</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="7">
+        <v>127</v>
+      </c>
+      <c r="I28" s="7">
+        <v>89756</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" s="7">
+        <v>249</v>
+      </c>
+      <c r="N28" s="7">
+        <v>177605</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>180</v>
+      </c>
+      <c r="D29" s="7">
+        <v>130983</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H29" s="7">
+        <v>158</v>
+      </c>
+      <c r="I29" s="7">
+        <v>110452</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M29" s="7">
+        <v>338</v>
+      </c>
+      <c r="N29" s="7">
+        <v>241436</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>133</v>
+      </c>
+      <c r="D30" s="7">
+        <v>97429</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="7">
+        <v>142</v>
+      </c>
+      <c r="I30" s="7">
+        <v>100186</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M30" s="7">
+        <v>275</v>
+      </c>
+      <c r="N30" s="7">
+        <v>197615</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7">
+        <v>24195</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="7">
+        <v>43</v>
+      </c>
+      <c r="I31" s="7">
+        <v>29220</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M31" s="7">
+        <v>76</v>
+      </c>
+      <c r="N31" s="7">
+        <v>53415</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8746</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32" s="7">
+        <v>20</v>
+      </c>
+      <c r="I32" s="7">
+        <v>13833</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M32" s="7">
+        <v>32</v>
+      </c>
+      <c r="N32" s="7">
+        <v>22580</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>490</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>343448</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>970</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>692651</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>61</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B7D69B-63AA-40D7-A3E2-06E4530B29B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AE4777-3B1C-4971-8EAA-6E35B6CE9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0BA12E3-F08E-40CF-B690-7995B23AA083}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B4DB1E0-C9E8-47B8-801D-3CB442367CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -97,1159 +97,1147 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>17,1%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>4,61%</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3141D70B-E8F8-458D-9B34-100793B0AAE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517B733B-85DB-40CA-9313-14F58468CAF2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2847,7 +2835,7 @@
         <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2856,13 +2844,13 @@
         <v>3275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2871,13 +2859,13 @@
         <v>4426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2933,13 @@
         <v>79801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>97</v>
@@ -2960,13 +2948,13 @@
         <v>63499</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -3068,7 +3056,7 @@
         <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>252</v>
@@ -3077,13 +3065,13 @@
         <v>166921</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3086,13 @@
         <v>10442</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -3113,13 +3101,13 @@
         <v>11710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -3128,13 +3116,13 @@
         <v>22151</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3137,13 @@
         <v>4332</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3164,13 +3152,13 @@
         <v>5412</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -3179,13 +3167,13 @@
         <v>9744</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3229,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561E697-05AC-4C5C-8AAB-50A8E81B49D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26AC56A-D3AE-4449-9B5C-ABE1A0C3AFB2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3278,7 +3266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3929,13 +3917,13 @@
         <v>49855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3944,13 +3932,13 @@
         <v>58349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3959,13 +3947,13 @@
         <v>108204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3968,13 @@
         <v>52447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -3995,13 +3983,13 @@
         <v>50246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -4010,13 +3998,13 @@
         <v>102692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4019,13 @@
         <v>36465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -4046,13 +4034,13 @@
         <v>32795</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -4061,13 +4049,13 @@
         <v>69261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4070,13 @@
         <v>8933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4097,13 +4085,13 @@
         <v>4969</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -4112,13 +4100,13 @@
         <v>13902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4121,13 @@
         <v>7081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4148,13 +4136,13 @@
         <v>1963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4163,13 +4151,13 @@
         <v>9044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4225,13 @@
         <v>62419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -4252,13 +4240,13 @@
         <v>55980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
@@ -4267,13 +4255,13 @@
         <v>118400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4276,13 @@
         <v>63179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -4345,7 +4333,7 @@
         <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -4354,13 +4342,13 @@
         <v>37649</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
@@ -4369,13 +4357,13 @@
         <v>70780</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4378,13 @@
         <v>8944</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4405,13 +4393,13 @@
         <v>5664</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4420,13 +4408,13 @@
         <v>14608</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4429,13 @@
         <v>2977</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4456,13 +4444,13 @@
         <v>1306</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4471,13 +4459,13 @@
         <v>4283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4533,13 @@
         <v>112274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H28" s="7">
         <v>161</v>
@@ -4560,13 +4548,13 @@
         <v>114329</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -4575,13 +4563,13 @@
         <v>226603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4584,13 @@
         <v>115626</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>160</v>
@@ -4611,13 +4599,13 @@
         <v>111154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>328</v>
@@ -4626,13 +4614,13 @@
         <v>226780</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4635,13 @@
         <v>69596</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -4662,13 +4650,13 @@
         <v>70444</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -4677,13 +4665,13 @@
         <v>140041</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4686,13 @@
         <v>17876</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -4713,13 +4701,13 @@
         <v>10634</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -4728,13 +4716,13 @@
         <v>28510</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4737,13 @@
         <v>10058</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -4764,13 +4752,13 @@
         <v>3269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -4779,13 +4767,13 @@
         <v>13328</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4829,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183C5070-62A6-4B80-8F2B-1F2ED8769399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF91173E-DCAF-4647-83FE-E4F5C5FE541E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,7 +4866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5517,13 @@
         <v>46454</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5544,13 +5532,13 @@
         <v>45827</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -5559,13 +5547,13 @@
         <v>92281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5568,13 @@
         <v>69350</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5595,13 +5583,13 @@
         <v>56446</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -5610,13 +5598,13 @@
         <v>125796</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5619,13 @@
         <v>45885</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -5646,13 +5634,13 @@
         <v>51888</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -5661,13 +5649,13 @@
         <v>97774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5670,13 @@
         <v>11094</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -5697,13 +5685,13 @@
         <v>16534</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -5712,13 +5700,13 @@
         <v>27629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5721,13 @@
         <v>5827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -5748,13 +5736,13 @@
         <v>8608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -5763,13 +5751,13 @@
         <v>14434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5825,13 @@
         <v>41394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -5852,13 +5840,13 @@
         <v>43930</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -5867,13 +5855,13 @@
         <v>85324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5876,13 @@
         <v>61633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>77</v>
@@ -5903,13 +5891,13 @@
         <v>54006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -5918,13 +5906,13 @@
         <v>115639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5927,13 @@
         <v>51543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -5954,13 +5942,13 @@
         <v>48298</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>137</v>
@@ -5969,13 +5957,13 @@
         <v>99841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5978,13 @@
         <v>13101</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -6005,13 +5993,13 @@
         <v>12685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6020,13 +6008,13 @@
         <v>25786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6029,13 @@
         <v>2920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6056,13 +6044,13 @@
         <v>5226</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -6071,13 +6059,13 @@
         <v>8146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6133,13 @@
         <v>87849</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H28" s="7">
         <v>127</v>
@@ -6160,13 +6148,13 @@
         <v>89756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>249</v>
@@ -6175,13 +6163,13 @@
         <v>177605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6184,13 @@
         <v>130983</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>158</v>
@@ -6211,13 +6199,13 @@
         <v>110452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>338</v>
@@ -6226,13 +6214,13 @@
         <v>241436</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6235,13 @@
         <v>97429</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>142</v>
@@ -6262,13 +6250,13 @@
         <v>100186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>275</v>
@@ -6277,13 +6265,13 @@
         <v>197615</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6286,13 @@
         <v>24195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H31" s="7">
         <v>43</v>
@@ -6313,13 +6301,13 @@
         <v>29220</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -6328,13 +6316,13 @@
         <v>53415</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6337,13 @@
         <v>8746</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>399</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6364,13 +6352,13 @@
         <v>13833</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6379,13 +6367,13 @@
         <v>22580</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6429,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AE4777-3B1C-4971-8EAA-6E35B6CE9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26809E5A-181A-4A9D-B59C-5DE97ECEAB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B4DB1E0-C9E8-47B8-801D-3CB442367CD6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C937FC89-8BE0-425B-9B03-D4DD3785BCC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1150 +94,1156 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
     <t>24,43%</t>
   </si>
   <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>29,49%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>26,76%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517B733B-85DB-40CA-9313-14F58468CAF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66C7C6E-37A7-4B8F-8682-21F1B7C7C552}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2311,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>30165</v>
+        <v>28954</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2326,10 +2332,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>28954</v>
+        <v>30165</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2362,10 +2368,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>56258</v>
+        <v>43371</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2377,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I17" s="7">
-        <v>43371</v>
+        <v>56258</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2413,10 +2419,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>27977</v>
+        <v>34588</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2428,10 +2434,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>34588</v>
+        <v>27977</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2464,10 +2470,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>5900</v>
+        <v>2661</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2479,10 +2485,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>2661</v>
+        <v>5900</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2515,10 +2521,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>3181</v>
+        <v>2136</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2530,10 +2536,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>2136</v>
+        <v>3181</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2566,25 +2572,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -2619,10 +2625,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>49635</v>
+        <v>34545</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
@@ -2634,10 +2640,10 @@
         <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>34545</v>
+        <v>49635</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>68</v>
@@ -2670,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7">
-        <v>69337</v>
+        <v>89143</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>74</v>
@@ -2685,10 +2691,10 @@
         <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I23" s="7">
-        <v>89143</v>
+        <v>69337</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>77</v>
@@ -2721,10 +2727,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7">
-        <v>61432</v>
+        <v>42924</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>83</v>
@@ -2736,10 +2742,10 @@
         <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I24" s="7">
-        <v>42924</v>
+        <v>61432</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>86</v>
@@ -2772,10 +2778,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>4542</v>
+        <v>9048</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>92</v>
@@ -2787,10 +2793,10 @@
         <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>9048</v>
+        <v>4542</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>95</v>
@@ -2823,28 +2829,28 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3275</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1151</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3275</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>104</v>
@@ -2874,25 +2880,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -2927,10 +2933,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D28" s="7">
-        <v>79801</v>
+        <v>63499</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>109</v>
@@ -2942,10 +2948,10 @@
         <v>111</v>
       </c>
       <c r="H28" s="7">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="I28" s="7">
-        <v>63499</v>
+        <v>79801</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>112</v>
@@ -2954,7 +2960,7 @@
         <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -2963,13 +2969,13 @@
         <v>143299</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,34 +2984,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>193</v>
+      </c>
+      <c r="D29" s="7">
+        <v>132513</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7">
         <v>188</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>125595</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="7">
-        <v>193</v>
-      </c>
-      <c r="I29" s="7">
-        <v>132513</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -3014,13 +3020,13 @@
         <v>258108</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3035,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D30" s="7">
-        <v>89409</v>
+        <v>77512</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>127</v>
@@ -3044,19 +3050,19 @@
         <v>128</v>
       </c>
       <c r="H30" s="7">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I30" s="7">
-        <v>77512</v>
+        <v>89409</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>252</v>
@@ -3080,10 +3086,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7">
-        <v>10442</v>
+        <v>11710</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>134</v>
@@ -3095,10 +3101,10 @@
         <v>136</v>
       </c>
       <c r="H31" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="7">
-        <v>11710</v>
+        <v>10442</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>137</v>
@@ -3131,10 +3137,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>4332</v>
+        <v>5412</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>143</v>
@@ -3146,10 +3152,10 @@
         <v>145</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>5412</v>
+        <v>4332</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>146</v>
@@ -3158,7 +3164,7 @@
         <v>147</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -3167,13 +3173,13 @@
         <v>9744</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,25 +3188,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>466</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309578</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -3229,7 +3235,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26AC56A-D3AE-4449-9B5C-ABE1A0C3AFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5EFCE8-2EE5-4A51-A4EB-8954AD8BC21E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3911,34 +3917,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7">
+        <v>58349</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7">
         <v>74</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>49855</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>58349</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3947,13 +3953,13 @@
         <v>108204</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,34 +3968,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>72</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50246</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="7">
         <v>75</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>52447</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="7">
-        <v>72</v>
-      </c>
-      <c r="I17" s="7">
-        <v>50246</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -3998,13 +4004,13 @@
         <v>102692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,34 +4019,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>46</v>
+      </c>
+      <c r="D18" s="7">
+        <v>32795</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="7">
         <v>52</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>36465</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
-      <c r="I18" s="7">
-        <v>32795</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -4049,10 +4055,10 @@
         <v>69261</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>177</v>
@@ -4064,10 +4070,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>8933</v>
+        <v>4969</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>178</v>
@@ -4079,10 +4085,10 @@
         <v>180</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>4969</v>
+        <v>8933</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>181</v>
@@ -4100,13 +4106,13 @@
         <v>13902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,34 +4121,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1963</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="7">
         <v>9</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>7081</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1963</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4151,13 +4157,13 @@
         <v>9044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,25 +4172,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>212</v>
+      </c>
+      <c r="D21" s="7">
+        <v>148323</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>222</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>154780</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>148323</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -4219,34 +4225,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>77</v>
+      </c>
+      <c r="D22" s="7">
+        <v>55980</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="7">
         <v>90</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>62419</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="7">
-        <v>77</v>
-      </c>
-      <c r="I22" s="7">
-        <v>55980</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
@@ -4255,13 +4261,13 @@
         <v>118400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,34 +4276,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7">
+        <v>60909</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="7">
         <v>93</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>63179</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="7">
-        <v>88</v>
-      </c>
-      <c r="I23" s="7">
-        <v>60909</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>181</v>
@@ -4306,13 +4312,13 @@
         <v>124088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,34 +4327,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37649</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="7">
         <v>51</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>33131</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7">
-        <v>54</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37649</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
@@ -4357,13 +4363,13 @@
         <v>70780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,34 +4378,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5664</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="7">
         <v>13</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>8944</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5664</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4408,13 +4414,13 @@
         <v>14608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,34 +4429,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2977</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1306</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4459,13 +4465,13 @@
         <v>4283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,25 +4480,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161508</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -4527,49 +4533,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>161</v>
+      </c>
+      <c r="D28" s="7">
+        <v>114329</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="7">
         <v>164</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>112274</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="7">
-        <v>161</v>
-      </c>
-      <c r="I28" s="7">
-        <v>114329</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
       </c>
       <c r="N28" s="7">
-        <v>226603</v>
+        <v>226604</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,49 +4584,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>160</v>
+      </c>
+      <c r="D29" s="7">
+        <v>111154</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="7">
         <v>168</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>115626</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="7">
-        <v>160</v>
-      </c>
-      <c r="I29" s="7">
-        <v>111154</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>328</v>
       </c>
       <c r="N29" s="7">
-        <v>226780</v>
+        <v>226781</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,34 +4635,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" s="7">
+        <v>70444</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="7">
         <v>103</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>69596</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" s="7">
-        <v>100</v>
-      </c>
-      <c r="I30" s="7">
-        <v>70444</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -4665,13 +4671,13 @@
         <v>140041</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,34 +4686,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>15</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10634</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="7">
         <v>25</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>17876</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" s="7">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7">
-        <v>10634</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -4716,13 +4722,13 @@
         <v>28510</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,34 +4737,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3269</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="7">
         <v>13</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>10058</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3269</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -4767,13 +4773,13 @@
         <v>13328</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,25 +4788,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>441</v>
+      </c>
+      <c r="D33" s="7">
+        <v>309831</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>325431</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>441</v>
-      </c>
-      <c r="I33" s="7">
-        <v>309831</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -4815,7 +4821,7 @@
         <v>914</v>
       </c>
       <c r="N33" s="7">
-        <v>635262</v>
+        <v>635263</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>63</v>
@@ -4829,7 +4835,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +4855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF91173E-DCAF-4647-83FE-E4F5C5FE541E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0135BCBC-9500-4B4A-B2AE-487F90BC1D9E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4866,7 +4872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,34 +5517,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45827</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="7">
         <v>66</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>46454</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="7">
-        <v>65</v>
-      </c>
-      <c r="I16" s="7">
-        <v>45827</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -5547,13 +5553,13 @@
         <v>92281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,34 +5568,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7">
+        <v>56446</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="7">
         <v>96</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>69350</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="7">
-        <v>81</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56446</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -5598,13 +5604,13 @@
         <v>125796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,34 +5619,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>74</v>
+      </c>
+      <c r="D18" s="7">
+        <v>51888</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="7">
         <v>64</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>45885</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H18" s="7">
-        <v>74</v>
-      </c>
-      <c r="I18" s="7">
-        <v>51888</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -5649,13 +5655,13 @@
         <v>97774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,34 +5670,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>16534</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="7">
         <v>16</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>11094</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16534</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -5700,13 +5706,13 @@
         <v>27629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,34 +5721,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8608</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>5827</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8608</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -5751,13 +5757,13 @@
         <v>14434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,25 +5772,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>257</v>
+      </c>
+      <c r="D21" s="7">
+        <v>179303</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>257</v>
-      </c>
-      <c r="I21" s="7">
-        <v>179303</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -5819,34 +5825,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>62</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43930</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="7">
         <v>56</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>41394</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" s="7">
-        <v>62</v>
-      </c>
-      <c r="I22" s="7">
-        <v>43930</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -5855,13 +5861,13 @@
         <v>85324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,34 +5876,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>77</v>
+      </c>
+      <c r="D23" s="7">
+        <v>54006</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="7">
         <v>84</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>61633</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H23" s="7">
-        <v>77</v>
-      </c>
-      <c r="I23" s="7">
-        <v>54006</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -5906,13 +5912,13 @@
         <v>115639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,34 +5927,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7">
+        <v>48298</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="7">
         <v>69</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>51543</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H24" s="7">
-        <v>68</v>
-      </c>
-      <c r="I24" s="7">
-        <v>48298</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>137</v>
@@ -5957,13 +5963,13 @@
         <v>99841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,34 +5978,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12685</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" s="7">
         <v>17</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>13101</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>12685</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6008,13 +6014,13 @@
         <v>25786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,34 +6029,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5226</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2920</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5226</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -6059,13 +6065,13 @@
         <v>8146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,25 +6080,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>233</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164145</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>233</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164145</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -6127,34 +6133,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>127</v>
+      </c>
+      <c r="D28" s="7">
+        <v>89756</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" s="7">
         <v>122</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>87849</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H28" s="7">
-        <v>127</v>
-      </c>
-      <c r="I28" s="7">
-        <v>89756</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>249</v>
@@ -6163,13 +6169,13 @@
         <v>177605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,34 +6184,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>158</v>
+      </c>
+      <c r="D29" s="7">
+        <v>110452</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H29" s="7">
         <v>180</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>130983</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H29" s="7">
-        <v>158</v>
-      </c>
-      <c r="I29" s="7">
-        <v>110452</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>338</v>
@@ -6214,13 +6220,13 @@
         <v>241436</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,34 +6235,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>142</v>
+      </c>
+      <c r="D30" s="7">
+        <v>100186</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H30" s="7">
         <v>133</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>97429</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H30" s="7">
-        <v>142</v>
-      </c>
-      <c r="I30" s="7">
-        <v>100186</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>275</v>
@@ -6265,13 +6271,13 @@
         <v>197615</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,34 +6286,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>43</v>
+      </c>
+      <c r="D31" s="7">
+        <v>29220</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" s="7">
         <v>33</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>24195</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H31" s="7">
-        <v>43</v>
-      </c>
-      <c r="I31" s="7">
-        <v>29220</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -6316,13 +6322,13 @@
         <v>53415</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,34 +6337,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
+        <v>13833</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H32" s="7">
         <v>12</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>8746</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H32" s="7">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7">
-        <v>13833</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>398</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>396</v>
+        <v>187</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6367,13 +6373,13 @@
         <v>22580</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,25 +6388,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>490</v>
+      </c>
+      <c r="D33" s="7">
+        <v>343448</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>490</v>
-      </c>
-      <c r="I33" s="7">
-        <v>343448</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -6429,7 +6435,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
